--- a/myJSON/ejemploexcel.xlsx
+++ b/myJSON/ejemploexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\$_CoderHouse\Desarrollo Web\Clase 11\Viziozone 11\myJSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F954B4-1E4F-4906-9347-3FD4552E44B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61A8F2B-6453-4F18-90AE-0B30385048E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{20F415A7-21AA-4A3F-AD72-4D8403B98674}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="519">
   <si>
     <t>PROCESADOR</t>
   </si>
@@ -1462,13 +1462,133 @@
   </si>
   <si>
     <t>Almacen</t>
+  </si>
+  <si>
+    <t>RYZEN</t>
+  </si>
+  <si>
+    <t>3200G</t>
+  </si>
+  <si>
+    <t>3300X</t>
+  </si>
+  <si>
+    <t>3400G</t>
+  </si>
+  <si>
+    <t>2600X</t>
+  </si>
+  <si>
+    <t>3500X</t>
+  </si>
+  <si>
+    <t>3600X</t>
+  </si>
+  <si>
+    <t>5600X</t>
+  </si>
+  <si>
+    <t>3700X</t>
+  </si>
+  <si>
+    <t>3800X</t>
+  </si>
+  <si>
+    <t>3800XT</t>
+  </si>
+  <si>
+    <t>5800X</t>
+  </si>
+  <si>
+    <t>3900X</t>
+  </si>
+  <si>
+    <t>5900X</t>
+  </si>
+  <si>
+    <t>3950X</t>
+  </si>
+  <si>
+    <t>5950X</t>
+  </si>
+  <si>
+    <t>THREADRIPPER</t>
+  </si>
+  <si>
+    <t>3960X</t>
+  </si>
+  <si>
+    <t>3970X</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>9100F</t>
+  </si>
+  <si>
+    <t>PENTIUM</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>G5400,</t>
+  </si>
+  <si>
+    <t>10100F</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>9400F</t>
+  </si>
+  <si>
+    <t>10400F</t>
+  </si>
+  <si>
+    <t>9600K</t>
+  </si>
+  <si>
+    <t>10600K</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>9700K</t>
+  </si>
+  <si>
+    <t>10700F</t>
+  </si>
+  <si>
+    <t>10700K</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>9900KF</t>
+  </si>
+  <si>
+    <t>10850K</t>
+  </si>
+  <si>
+    <t>10900KF</t>
+  </si>
+  <si>
+    <t>10900K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1488,6 +1608,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1519,10 +1654,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1837,19 +1976,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E59464-E206-4C05-9F47-FA33144B9F1E}">
-  <dimension ref="A2:G209"/>
+  <dimension ref="A2:Q209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="P164" sqref="P164:P169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="87.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>465</v>
       </c>
@@ -1872,7 +2013,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1891,8 +2032,30 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4" t="str">
+        <f>_xlfn.CONCAT(J3&amp;" "&amp;K3&amp;" "&amp;L3&amp;" "&amp;M3)</f>
+        <v>AMD RYZEN 3 3100</v>
+      </c>
+      <c r="P3" s="5" t="str">
+        <f>"'"&amp;O3&amp;"',"</f>
+        <v>'AMD RYZEN 3 3100',</v>
+      </c>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1911,8 +2074,30 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4" t="str">
+        <f t="shared" ref="O4:O40" si="0">_xlfn.CONCAT(J4&amp;" "&amp;K4&amp;" "&amp;L4&amp;" "&amp;M4)</f>
+        <v>AMD RYZEN 3 3200G</v>
+      </c>
+      <c r="P4" s="5" t="str">
+        <f t="shared" ref="P4:P20" si="1">"'"&amp;O4&amp;"',"</f>
+        <v>'AMD RYZEN 3 3200G',</v>
+      </c>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1931,8 +2116,30 @@
       <c r="G5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 3 3300X</v>
+      </c>
+      <c r="P5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 3 3300X',</v>
+      </c>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -1951,8 +2158,30 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 5 2600</v>
+      </c>
+      <c r="P6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 5 2600',</v>
+      </c>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -1971,8 +2200,30 @@
       <c r="G7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L7" s="3">
+        <v>5</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 5 3400G</v>
+      </c>
+      <c r="P7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 5 3400G',</v>
+      </c>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -1991,8 +2242,30 @@
       <c r="G8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 5 2600X</v>
+      </c>
+      <c r="P8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 5 2600X',</v>
+      </c>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -2011,8 +2284,30 @@
       <c r="G9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L9" s="3">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 5 3500X</v>
+      </c>
+      <c r="P9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 5 3500X',</v>
+      </c>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -2031,8 +2326,30 @@
       <c r="G10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L10" s="3">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 5 3600</v>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 5 3600',</v>
+      </c>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -2051,8 +2368,30 @@
       <c r="G11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L11" s="3">
+        <v>5</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 5 3600X</v>
+      </c>
+      <c r="P11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 5 3600X',</v>
+      </c>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -2071,8 +2410,30 @@
       <c r="G12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L12" s="3">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 5 5600X</v>
+      </c>
+      <c r="P12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 5 5600X',</v>
+      </c>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -2091,8 +2452,30 @@
       <c r="G13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L13" s="3">
+        <v>7</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 7 3700X</v>
+      </c>
+      <c r="P13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 7 3700X',</v>
+      </c>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -2111,8 +2494,30 @@
       <c r="G14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L14" s="3">
+        <v>7</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 7 3800X</v>
+      </c>
+      <c r="P14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 7 3800X',</v>
+      </c>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -2131,8 +2536,30 @@
       <c r="G15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L15" s="3">
+        <v>7</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 7 3800XT</v>
+      </c>
+      <c r="P15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 7 3800XT',</v>
+      </c>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -2151,8 +2578,30 @@
       <c r="G16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L16" s="3">
+        <v>7</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 7 5800X</v>
+      </c>
+      <c r="P16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 7 5800X',</v>
+      </c>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -2171,8 +2620,30 @@
       <c r="G17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L17" s="3">
+        <v>9</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 9 3900X</v>
+      </c>
+      <c r="P17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 9 3900X',</v>
+      </c>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -2191,8 +2662,30 @@
       <c r="G18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L18" s="3">
+        <v>9</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 9 5900X</v>
+      </c>
+      <c r="P18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 9 5900X',</v>
+      </c>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -2211,8 +2704,30 @@
       <c r="G19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L19" s="3">
+        <v>9</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 9 3950X</v>
+      </c>
+      <c r="P19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 9 3950X',</v>
+      </c>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -2231,8 +2746,30 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L20" s="3">
+        <v>9</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN 9 5950X</v>
+      </c>
+      <c r="P20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>'AMD RYZEN 9 5950X',</v>
+      </c>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -2251,8 +2788,27 @@
       <c r="G21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN THREADRIPPER 3960X</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -2271,8 +2827,27 @@
       <c r="G22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>AMD RYZEN THREADRIPPER 3970X</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -2291,8 +2866,27 @@
       <c r="G23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I3 9100F</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -2311,8 +2905,27 @@
       <c r="G24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL PENTIUM GOLD G5400,</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -2331,8 +2944,27 @@
       <c r="G25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I3 10100F</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -2351,8 +2983,27 @@
       <c r="G26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="M26" s="3">
+        <v>10100</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I3 10100</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -2371,8 +3022,27 @@
       <c r="G27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I5 9400F</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -2391,8 +3061,27 @@
       <c r="G28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I5 10400F</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>0</v>
       </c>
@@ -2411,8 +3100,27 @@
       <c r="G29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="M29" s="3">
+        <v>10400</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I5 10400</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -2431,8 +3139,27 @@
       <c r="G30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I5 9600K</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -2451,8 +3178,27 @@
       <c r="G31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I5 10600K</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -2471,8 +3217,27 @@
       <c r="G32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="M32" s="3">
+        <v>9700</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I7 9700</v>
+      </c>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -2491,8 +3256,27 @@
       <c r="G33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="M33" s="3">
+        <v>10700</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I7 10700</v>
+      </c>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -2511,8 +3295,27 @@
       <c r="G34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I7 9700K</v>
+      </c>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>0</v>
       </c>
@@ -2531,8 +3334,27 @@
       <c r="G35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I7 10700F</v>
+      </c>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -2551,8 +3373,27 @@
       <c r="G36" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I7 10700K</v>
+      </c>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -2571,8 +3412,27 @@
       <c r="G37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I9 9900KF</v>
+      </c>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>0</v>
       </c>
@@ -2591,8 +3451,27 @@
       <c r="G38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I9 10850K</v>
+      </c>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -2611,8 +3490,27 @@
       <c r="G39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I9 10900KF</v>
+      </c>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -2631,13 +3529,32 @@
       <c r="G40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEL CORE I9 10900K</v>
+      </c>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>467</v>
       </c>
@@ -2657,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>467</v>
       </c>
@@ -2677,7 +3594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>467</v>
       </c>
@@ -2697,7 +3614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>467</v>
       </c>
@@ -2717,7 +3634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>467</v>
       </c>
@@ -2737,7 +3654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>467</v>
       </c>
@@ -3077,7 +3994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>467</v>
       </c>
@@ -3097,7 +4014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>467</v>
       </c>
@@ -3117,7 +4034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>467</v>
       </c>
@@ -3137,7 +4054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>467</v>
       </c>
@@ -3157,7 +4074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>467</v>
       </c>
@@ -3177,7 +4094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>467</v>
       </c>
@@ -3197,7 +4114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>467</v>
       </c>
@@ -3217,7 +4134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>467</v>
       </c>
@@ -3237,7 +4154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>467</v>
       </c>
@@ -3257,7 +4174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>467</v>
       </c>
@@ -3277,7 +4194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>467</v>
       </c>
@@ -3297,7 +4214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>467</v>
       </c>
@@ -3317,7 +4234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>467</v>
       </c>
@@ -3337,7 +4254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>468</v>
       </c>
@@ -3356,8 +4273,12 @@
       <c r="G78" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P78" t="str">
+        <f>"'"&amp;D78&amp;"',"</f>
+        <v>'MB ASROCK A320M-HDV R4.0 | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>468</v>
       </c>
@@ -3376,8 +4297,12 @@
       <c r="G79" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P79" t="str">
+        <f>"'"&amp;D79&amp;"',"</f>
+        <v>'MB MSI AMD A520M-A-PRO 2 DDR44 4400MHZ HDMI DVI',</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>468</v>
       </c>
@@ -3396,8 +4321,12 @@
       <c r="G80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P80" t="str">
+        <f t="shared" ref="P80:P114" si="2">"'"&amp;D80&amp;"',"</f>
+        <v>'MB ASROCK A520M-HDV | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>468</v>
       </c>
@@ -3416,8 +4345,12 @@
       <c r="G81" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P81" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASROCK B450M-HDV R4.0 | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>468</v>
       </c>
@@ -3436,8 +4369,12 @@
       <c r="G82" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P82" t="str">
+        <f t="shared" si="2"/>
+        <v>'MAINBOARD GIGABYTE B450M GAMING | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>468</v>
       </c>
@@ -3456,8 +4393,12 @@
       <c r="G83" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P83" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB GIGABYTE B450M-DS3H | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>468</v>
       </c>
@@ -3476,8 +4417,12 @@
       <c r="G84" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P84" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB GIGABYTE A520M-H | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>468</v>
       </c>
@@ -3496,8 +4441,12 @@
       <c r="G85" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P85" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB GIGABYTE B450M V2 DSH3 | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>468</v>
       </c>
@@ -3516,8 +4465,12 @@
       <c r="G86" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P86" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASROCK B450M PRO4-F | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>468</v>
       </c>
@@ -3536,8 +4489,12 @@
       <c r="G87" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P87" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB MSI B450M PRO-M2 MAX | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>468</v>
       </c>
@@ -3556,8 +4513,12 @@
       <c r="G88" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P88" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASROCK B550M-HDV | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>468</v>
       </c>
@@ -3576,8 +4537,12 @@
       <c r="G89" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P89" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASUS PRIME B450M-A | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>468</v>
       </c>
@@ -3596,8 +4561,12 @@
       <c r="G90" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P90" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB GIGABYTE B450 AORUS M | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>468</v>
       </c>
@@ -3616,8 +4585,12 @@
       <c r="G91" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P91" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB GIGABYTE B450 AORUS ELITE | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>468</v>
       </c>
@@ -3636,8 +4609,12 @@
       <c r="G92" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P92" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASROCK B450 STEEL LEGEND LED- RGB | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>468</v>
       </c>
@@ -3656,8 +4633,12 @@
       <c r="G93" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P93" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB GIGABYTE B550M DS3H | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>468</v>
       </c>
@@ -3676,8 +4657,12 @@
       <c r="G94" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P94" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASROCK B550M PRO 4 AM4 FUTURE | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>468</v>
       </c>
@@ -3696,8 +4681,12 @@
       <c r="G95" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P95" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASROCK B550M PRO 4 AM4 FUTURE | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>468</v>
       </c>
@@ -3716,8 +4705,12 @@
       <c r="G96" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P96" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASROCK B550 PHATOM GAMING 4 (DDR4 4733+OC) | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>468</v>
       </c>
@@ -3736,8 +4729,12 @@
       <c r="G97" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P97" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASROCK B550 PHATOM GAMING 4/AC SOCKET AM4 (WI-FI) | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>468</v>
       </c>
@@ -3756,8 +4753,12 @@
       <c r="G98" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P98" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB B550M AORUS ELITE | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>468</v>
       </c>
@@ -3776,8 +4777,12 @@
       <c r="G99" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P99" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASUS TUF GAMING B550M-PLUS | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>468</v>
       </c>
@@ -3796,8 +4801,12 @@
       <c r="G100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P100" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASROCK B550M STEEL LEGEND AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>468</v>
       </c>
@@ -3816,8 +4825,12 @@
       <c r="G101" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P101" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASUS TUF GAMING B550M-PLUS (WI-FI) | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>468</v>
       </c>
@@ -3836,8 +4849,12 @@
       <c r="G102" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P102" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB GIGABYTE X570 GAMING X | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>468</v>
       </c>
@@ -3856,8 +4873,12 @@
       <c r="G103" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P103" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB GIGABYTE B550 AORUS ELITE | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>468</v>
       </c>
@@ -3876,8 +4897,12 @@
       <c r="G104" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P104" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASUS ASUS PRIME X570-PRO | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>468</v>
       </c>
@@ -3896,8 +4921,12 @@
       <c r="G105" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P105" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB GIGABYTE B550 AORUS ELITE (with Dual M.2) | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>468</v>
       </c>
@@ -3916,8 +4945,12 @@
       <c r="G106" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P106" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB MSI MPG X570 GAMING PLUS | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>468</v>
       </c>
@@ -3936,8 +4969,12 @@
       <c r="G107" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P107" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASROCK B550 EXTREME4 | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>468</v>
       </c>
@@ -3956,8 +4993,12 @@
       <c r="G108" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P108" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB GIGABYTE B550 AORUS PRO | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>468</v>
       </c>
@@ -3976,8 +5017,12 @@
       <c r="G109" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P109" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB GIGABYTE X570 AORUS ELITE | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>468</v>
       </c>
@@ -3996,8 +5041,12 @@
       <c r="G110" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P110" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASUS TUF GAMING X570-PLUS WI-FI | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>468</v>
       </c>
@@ -4016,8 +5065,12 @@
       <c r="G111" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P111" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASUS ROG STRIX B550-E GAMING AMD RYZEN DDR4 AM4',</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>468</v>
       </c>
@@ -4036,8 +5089,12 @@
       <c r="G112" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P112" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASUS ROG STRIX X570-E GAMING RGB | AM4 AMD',</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>468</v>
       </c>
@@ -4056,11 +5113,15 @@
       <c r="G113" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P113" t="str">
+        <f t="shared" si="2"/>
+        <v>'MB ASUS TUF GAMING X570-PLUS AMD RYZEN DDR4 AM4',</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>469</v>
       </c>
@@ -4083,7 +5144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>470</v>
       </c>
@@ -4103,7 +5164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>470</v>
       </c>
@@ -4123,7 +5184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>470</v>
       </c>
@@ -4143,7 +5204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>470</v>
       </c>
@@ -4163,7 +5224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>470</v>
       </c>
@@ -4183,7 +5244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>470</v>
       </c>
@@ -4203,7 +5264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>470</v>
       </c>
@@ -4223,7 +5284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>470</v>
       </c>
@@ -4243,7 +5304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>470</v>
       </c>
@@ -4263,7 +5324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>470</v>
       </c>
@@ -4283,7 +5344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>470</v>
       </c>
@@ -4303,7 +5364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>470</v>
       </c>
@@ -4323,7 +5384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>470</v>
       </c>
@@ -4663,7 +5724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>470</v>
       </c>
@@ -4683,7 +5744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>470</v>
       </c>
@@ -4703,7 +5764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>470</v>
       </c>
@@ -4723,7 +5784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>470</v>
       </c>
@@ -4743,7 +5804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>470</v>
       </c>
@@ -4763,7 +5824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>470</v>
       </c>
@@ -4783,7 +5844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>470</v>
       </c>
@@ -4803,7 +5864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>470</v>
       </c>
@@ -4823,7 +5884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>470</v>
       </c>
@@ -4843,7 +5904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>470</v>
       </c>
@@ -4863,7 +5924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>470</v>
       </c>
@@ -4883,7 +5944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>470</v>
       </c>
@@ -4903,7 +5964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>1</v>
       </c>
@@ -4923,7 +5984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>1</v>
       </c>
@@ -4942,8 +6003,12 @@
       <c r="G158" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P158" t="str">
+        <f>"'"&amp;D158&amp;"',"</f>
+        <v>'VIEWMAX ENIGMAX RX 570 4GB',</v>
+      </c>
+    </row>
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>1</v>
       </c>
@@ -4962,8 +6027,12 @@
       <c r="G159" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P159" t="str">
+        <f t="shared" ref="P159:P170" si="3">"'"&amp;D159&amp;"',"</f>
+        <v>'VIEWMAX ENIGMAX RX 570 8GB',</v>
+      </c>
+    </row>
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>1</v>
       </c>
@@ -4982,8 +6051,12 @@
       <c r="G160" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P160" t="str">
+        <f t="shared" si="3"/>
+        <v>'ASROCK PHANTOM GAMING D RADEON RX 570 4G',</v>
+      </c>
+    </row>
+    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>1</v>
       </c>
@@ -5002,8 +6075,12 @@
       <c r="G161" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P161" t="str">
+        <f t="shared" si="3"/>
+        <v>'Tarjeta de video Gigabyte Radeon RX 570, 4GB, 256-bits',</v>
+      </c>
+    </row>
+    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>1</v>
       </c>
@@ -5022,8 +6099,12 @@
       <c r="G162" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P162" t="str">
+        <f t="shared" si="3"/>
+        <v>'ASROCK PHANTOM GAMING D RADEON RX 570 8G',</v>
+      </c>
+    </row>
+    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -5042,8 +6123,12 @@
       <c r="G163" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P163" t="str">
+        <f t="shared" si="3"/>
+        <v>'TARJ. VIDEO SAPPHIRE RADEON RX 570 8GB GDDR5 PULSE 256 BIT',</v>
+      </c>
+    </row>
+    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -5062,8 +6147,12 @@
       <c r="G164" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P164" t="str">
+        <f t="shared" si="3"/>
+        <v>'TARJ. VIDEO SAPPHIRE RADEON RX 5500 XT 4GB GDDR6 PULSE | 128 BIT',</v>
+      </c>
+    </row>
+    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -5082,8 +6171,12 @@
       <c r="G165" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P165" t="str">
+        <f t="shared" si="3"/>
+        <v>'ASROCK RADEON RX 5500 XT 8GB GDDR6 CHALLENGER D 8G OC | 128 BIT',</v>
+      </c>
+    </row>
+    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -5102,8 +6195,12 @@
       <c r="G166" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P166" t="str">
+        <f t="shared" si="3"/>
+        <v>'T. VIDEO GIGABYTE RADEON RX 5500 XT 4GB GDDR6',</v>
+      </c>
+    </row>
+    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>1</v>
       </c>
@@ -5122,8 +6219,12 @@
       <c r="G167" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P167" t="str">
+        <f t="shared" si="3"/>
+        <v>'Tarjeta de video ASUS ROG Strix AMD Radeon RX570 OC edition 8GB GDDR5 256-bit',</v>
+      </c>
+    </row>
+    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>1</v>
       </c>
@@ -5142,8 +6243,12 @@
       <c r="G168" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P168" t="str">
+        <f t="shared" si="3"/>
+        <v>'GIGABYTE AMD RADEON RX 580 GAMING 8GB GDDR5',</v>
+      </c>
+    </row>
+    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>1</v>
       </c>
@@ -5162,8 +6267,12 @@
       <c r="G169" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P169" t="str">
+        <f t="shared" si="3"/>
+        <v>'ASUS AMD ROG STRIX RX 5500XT GAMING 8GB GDDR6',</v>
+      </c>
+    </row>
+    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>1</v>
       </c>
@@ -5182,8 +6291,12 @@
       <c r="G170" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P170" t="str">
+        <f t="shared" si="3"/>
+        <v>'TARJETA VIDEO AMD RADEON RX 5500XT 8GB ASUS ROG STRIX GAMING',</v>
+      </c>
+    </row>
+    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>1</v>
       </c>
@@ -5203,7 +6316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>1</v>
       </c>
@@ -5223,7 +6336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>1</v>
       </c>
@@ -5243,7 +6356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>1</v>
       </c>
@@ -5263,7 +6376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -5283,7 +6396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>472</v>
       </c>
@@ -5306,7 +6419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>471</v>
       </c>
@@ -5326,7 +6439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>471</v>
       </c>
@@ -5346,7 +6459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>471</v>
       </c>
@@ -5366,7 +6479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>471</v>
       </c>
@@ -5386,7 +6499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>471</v>
       </c>
@@ -5406,7 +6519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>471</v>
       </c>
@@ -5426,7 +6539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>471</v>
       </c>
@@ -5446,7 +6559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>471</v>
       </c>
@@ -5466,7 +6579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>471</v>
       </c>
@@ -5485,8 +6598,12 @@
       <c r="G187" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P187" t="str">
+        <f>"'"&amp;D187&amp;"',"</f>
+        <v>'MEMORIA SODIMM T-FORCE VULCAN 8GB 3200MHZ DDR4 | RED',</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>471</v>
       </c>
@@ -5505,8 +6622,12 @@
       <c r="G188" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P188" t="str">
+        <f>"'"&amp;D188&amp;"',"</f>
+        <v>'MEMORIA DDR4 KINGSTON 8GB 3200MHZ BLACK CL16',</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>471</v>
       </c>
@@ -5525,8 +6646,12 @@
       <c r="G189" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P189" t="str">
+        <f t="shared" ref="P189:P198" si="4">"'"&amp;D189&amp;"',"</f>
+        <v>'MEMORIA HP V8SERIES 8GB 3200',</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>471</v>
       </c>
@@ -5545,8 +6670,12 @@
       <c r="G190" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P190" t="str">
+        <f t="shared" si="4"/>
+        <v>'MEM 8G HYPERX 3200GHZ DDR4',</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>471</v>
       </c>
@@ -5565,8 +6694,12 @@
       <c r="G191" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P191" t="str">
+        <f t="shared" si="4"/>
+        <v>'MEM. RAM TEAMGROUP T-FORCE DELTA DDR4 8GB/3200 NEGRO LED- RGB',</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>471</v>
       </c>
@@ -5585,8 +6718,12 @@
       <c r="G192" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P192" t="str">
+        <f t="shared" si="4"/>
+        <v>'MEMORIA RAM GEIL SUPER LUCE RGB 8GB DDR4 3200MHZ',</v>
+      </c>
+    </row>
+    <row r="193" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>471</v>
       </c>
@@ -5605,8 +6742,12 @@
       <c r="G193" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P193" t="str">
+        <f t="shared" si="4"/>
+        <v>'MEM. RAM HYPERX PREDATOR RGB 8GB DDR4 3200 MHZ',</v>
+      </c>
+    </row>
+    <row r="194" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>471</v>
       </c>
@@ -5625,8 +6766,12 @@
       <c r="G194" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P194" t="str">
+        <f t="shared" si="4"/>
+        <v>'RAM T-FORCE VULCAN Z 16GB, DDR4 3200MHZ',</v>
+      </c>
+    </row>
+    <row r="195" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>471</v>
       </c>
@@ -5645,8 +6790,12 @@
       <c r="G195" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P195" t="str">
+        <f t="shared" si="4"/>
+        <v>'MEMORIA RAM KINGSTON HYPERX FURY 16GB DDR4 2666MHZ',</v>
+      </c>
+    </row>
+    <row r="196" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>471</v>
       </c>
@@ -5665,8 +6814,12 @@
       <c r="G196" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P196" t="str">
+        <f t="shared" si="4"/>
+        <v>'RAM DDR4 T-FORCE DELTA RGB 16GB 3200MHZ BLACK',</v>
+      </c>
+    </row>
+    <row r="197" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>471</v>
       </c>
@@ -5685,8 +6838,12 @@
       <c r="G197" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P197" t="str">
+        <f t="shared" si="4"/>
+        <v>'MEMORIA CORSAIR DDR4 16GB 3200MHZ VENGEANCE LPX',</v>
+      </c>
+    </row>
+    <row r="198" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>471</v>
       </c>
@@ -5705,8 +6862,12 @@
       <c r="G198" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P198" t="str">
+        <f t="shared" si="4"/>
+        <v>'RAM KINGSTON HYPERX FURY 16GB DDR4 3200MHZ',</v>
+      </c>
+    </row>
+    <row r="199" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>471</v>
       </c>
@@ -5726,7 +6887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>471</v>
       </c>
@@ -5746,7 +6907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>471</v>
       </c>
@@ -5766,7 +6927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>471</v>
       </c>
@@ -5786,7 +6947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>471</v>
       </c>
@@ -5806,7 +6967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>471</v>
       </c>
@@ -5826,7 +6987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>471</v>
       </c>
@@ -5846,7 +7007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>471</v>
       </c>
@@ -5866,7 +7027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>471</v>
       </c>
@@ -5886,7 +7047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>471</v>
       </c>

--- a/myJSON/ejemploexcel.xlsx
+++ b/myJSON/ejemploexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\$_CoderHouse\Desarrollo Web\Clase 11\Viziozone 11\myJSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61A8F2B-6453-4F18-90AE-0B30385048E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D7DF90-2B39-49BA-B740-9396D082ED2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{20F415A7-21AA-4A3F-AD72-4D8403B98674}"/>
+    <workbookView xWindow="3930" yWindow="1440" windowWidth="33615" windowHeight="19005" xr2:uid="{20F415A7-21AA-4A3F-AD72-4D8403B98674}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="519">
   <si>
     <t>PROCESADOR</t>
   </si>
@@ -1976,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E59464-E206-4C05-9F47-FA33144B9F1E}">
-  <dimension ref="A2:Q209"/>
+  <dimension ref="A2:Q210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P164" sqref="P164:P169"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3553,6 +3553,24 @@
       <c r="A42" s="1" t="s">
         <v>466</v>
       </c>
+      <c r="B42" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -4322,7 +4340,7 @@
         <v>5</v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" ref="P80:P114" si="2">"'"&amp;D80&amp;"',"</f>
+        <f t="shared" ref="P80:P113" si="2">"'"&amp;D80&amp;"',"</f>
         <v>'MB ASROCK A520M-HDV | AM4 AMD',</v>
       </c>
     </row>
@@ -5125,23 +5143,23 @@
       <c r="A115" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B115" t="s">
-        <v>470</v>
-      </c>
-      <c r="C115" t="s">
-        <v>113</v>
-      </c>
-      <c r="D115" t="s">
-        <v>277</v>
-      </c>
-      <c r="E115" t="s">
-        <v>278</v>
-      </c>
-      <c r="F115" t="s">
-        <v>279</v>
-      </c>
-      <c r="G115" t="s">
-        <v>9</v>
+      <c r="B115" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -5149,19 +5167,19 @@
         <v>470</v>
       </c>
       <c r="C116" t="s">
-        <v>280</v>
+        <v>113</v>
       </c>
       <c r="D116" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E116" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F116" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G116" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -5169,19 +5187,19 @@
         <v>470</v>
       </c>
       <c r="C117" t="s">
-        <v>109</v>
+        <v>280</v>
       </c>
       <c r="D117" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E117" t="s">
-        <v>71</v>
+        <v>282</v>
       </c>
       <c r="F117" t="s">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="G117" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -5189,19 +5207,19 @@
         <v>470</v>
       </c>
       <c r="C118" t="s">
-        <v>285</v>
+        <v>109</v>
       </c>
       <c r="D118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E118" t="s">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c r="F118" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="G118" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -5209,16 +5227,16 @@
         <v>470</v>
       </c>
       <c r="C119" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E119" t="s">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
+        <v>288</v>
       </c>
       <c r="G119" t="s">
         <v>9</v>
@@ -5229,16 +5247,16 @@
         <v>470</v>
       </c>
       <c r="C120" t="s">
-        <v>125</v>
+        <v>289</v>
       </c>
       <c r="D120" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E120" t="s">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="F120" t="s">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="G120" t="s">
         <v>9</v>
@@ -5252,13 +5270,13 @@
         <v>125</v>
       </c>
       <c r="D121" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E121" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="F121" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="G121" t="s">
         <v>9</v>
@@ -5272,16 +5290,16 @@
         <v>125</v>
       </c>
       <c r="D122" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E122" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F122" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G122" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -5289,10 +5307,10 @@
         <v>470</v>
       </c>
       <c r="C123" t="s">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="D123" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E123" t="s">
         <v>296</v>
@@ -5309,19 +5327,19 @@
         <v>470</v>
       </c>
       <c r="C124" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="D124" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E124" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="F124" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="G124" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -5329,10 +5347,10 @@
         <v>470</v>
       </c>
       <c r="C125" t="s">
-        <v>280</v>
+        <v>113</v>
       </c>
       <c r="D125" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E125" t="s">
         <v>248</v>
@@ -5349,10 +5367,10 @@
         <v>470</v>
       </c>
       <c r="C126" t="s">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="D126" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E126" t="s">
         <v>248</v>
@@ -5369,19 +5387,19 @@
         <v>470</v>
       </c>
       <c r="C127" t="s">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="D127" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E127" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G127" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5389,19 +5407,19 @@
         <v>470</v>
       </c>
       <c r="C128" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="D128" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E128" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="F128" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G128" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -5409,10 +5427,10 @@
         <v>470</v>
       </c>
       <c r="C129" t="s">
-        <v>125</v>
+        <v>285</v>
       </c>
       <c r="D129" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E129" t="s">
         <v>269</v>
@@ -5432,13 +5450,13 @@
         <v>125</v>
       </c>
       <c r="D130" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E130" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="F130" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="G130" t="s">
         <v>9</v>
@@ -5449,16 +5467,16 @@
         <v>470</v>
       </c>
       <c r="C131" t="s">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="D131" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E131" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F131" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G131" t="s">
         <v>9</v>
@@ -5469,16 +5487,16 @@
         <v>470</v>
       </c>
       <c r="C132" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="D132" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>311</v>
       </c>
       <c r="G132" t="s">
         <v>9</v>
@@ -5489,16 +5507,16 @@
         <v>470</v>
       </c>
       <c r="C133" t="s">
-        <v>302</v>
+        <v>113</v>
       </c>
       <c r="D133" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E133" t="s">
-        <v>314</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>315</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>9</v>
@@ -5509,16 +5527,16 @@
         <v>470</v>
       </c>
       <c r="C134" t="s">
-        <v>109</v>
+        <v>302</v>
       </c>
       <c r="D134" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E134" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F134" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G134" t="s">
         <v>9</v>
@@ -5529,16 +5547,16 @@
         <v>470</v>
       </c>
       <c r="C135" t="s">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="D135" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E135" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F135" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G135" t="s">
         <v>9</v>
@@ -5549,16 +5567,16 @@
         <v>470</v>
       </c>
       <c r="C136" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D136" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E136" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F136" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G136" t="s">
         <v>9</v>
@@ -5569,16 +5587,16 @@
         <v>470</v>
       </c>
       <c r="C137" t="s">
-        <v>113</v>
+        <v>285</v>
       </c>
       <c r="D137" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E137" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F137" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G137" t="s">
         <v>9</v>
@@ -5589,19 +5607,19 @@
         <v>470</v>
       </c>
       <c r="C138" t="s">
-        <v>280</v>
+        <v>113</v>
       </c>
       <c r="D138" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E138" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F138" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
@@ -5609,19 +5627,19 @@
         <v>470</v>
       </c>
       <c r="C139" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D139" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E139" t="s">
-        <v>107</v>
+        <v>329</v>
       </c>
       <c r="F139" t="s">
-        <v>108</v>
+        <v>330</v>
       </c>
       <c r="G139" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
@@ -5629,16 +5647,16 @@
         <v>470</v>
       </c>
       <c r="C140" t="s">
-        <v>125</v>
+        <v>289</v>
       </c>
       <c r="D140" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E140" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F140" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="G140" t="s">
         <v>9</v>
@@ -5649,10 +5667,10 @@
         <v>470</v>
       </c>
       <c r="C141" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D141" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E141" t="s">
         <v>52</v>
@@ -5669,16 +5687,16 @@
         <v>470</v>
       </c>
       <c r="C142" t="s">
-        <v>280</v>
+        <v>113</v>
       </c>
       <c r="D142" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E142" t="s">
-        <v>335</v>
+        <v>52</v>
       </c>
       <c r="F142" t="s">
-        <v>336</v>
+        <v>53</v>
       </c>
       <c r="G142" t="s">
         <v>9</v>
@@ -5689,16 +5707,16 @@
         <v>470</v>
       </c>
       <c r="C143" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="D143" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E143" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F143" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G143" t="s">
         <v>9</v>
@@ -5709,16 +5727,16 @@
         <v>470</v>
       </c>
       <c r="C144" t="s">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="D144" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E144" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F144" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G144" t="s">
         <v>9</v>
@@ -5729,16 +5747,16 @@
         <v>470</v>
       </c>
       <c r="C145" t="s">
-        <v>125</v>
+        <v>289</v>
       </c>
       <c r="D145" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E145" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F145" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G145" t="s">
         <v>9</v>
@@ -5749,10 +5767,10 @@
         <v>470</v>
       </c>
       <c r="C146" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D146" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E146" t="s">
         <v>344</v>
@@ -5772,7 +5790,7 @@
         <v>113</v>
       </c>
       <c r="D147" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E147" t="s">
         <v>344</v>
@@ -5781,7 +5799,7 @@
         <v>345</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="2:16" x14ac:dyDescent="0.25">
@@ -5789,19 +5807,19 @@
         <v>470</v>
       </c>
       <c r="C148" t="s">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="D148" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E148" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="F148" t="s">
-        <v>56</v>
+        <v>345</v>
       </c>
       <c r="G148" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="2:16" x14ac:dyDescent="0.25">
@@ -5809,10 +5827,10 @@
         <v>470</v>
       </c>
       <c r="C149" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D149" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E149" t="s">
         <v>55</v>
@@ -5821,7 +5839,7 @@
         <v>56</v>
       </c>
       <c r="G149" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.25">
@@ -5832,13 +5850,13 @@
         <v>280</v>
       </c>
       <c r="D150" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E150" t="s">
-        <v>351</v>
+        <v>55</v>
       </c>
       <c r="F150" t="s">
-        <v>352</v>
+        <v>56</v>
       </c>
       <c r="G150" t="s">
         <v>16</v>
@@ -5849,16 +5867,16 @@
         <v>470</v>
       </c>
       <c r="C151" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="D151" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E151" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F151" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G151" t="s">
         <v>16</v>
@@ -5869,19 +5887,19 @@
         <v>470</v>
       </c>
       <c r="C152" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D152" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E152" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F152" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G152" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="2:16" x14ac:dyDescent="0.25">
@@ -5889,19 +5907,19 @@
         <v>470</v>
       </c>
       <c r="C153" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D153" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E153" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F153" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G153" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="2:16" x14ac:dyDescent="0.25">
@@ -5909,19 +5927,19 @@
         <v>470</v>
       </c>
       <c r="C154" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D154" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E154" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F154" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G154" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="2:16" x14ac:dyDescent="0.25">
@@ -5932,7 +5950,7 @@
         <v>113</v>
       </c>
       <c r="D155" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E155" t="s">
         <v>363</v>
@@ -5941,7 +5959,7 @@
         <v>364</v>
       </c>
       <c r="G155" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="2:16" x14ac:dyDescent="0.25">
@@ -5949,16 +5967,16 @@
         <v>470</v>
       </c>
       <c r="C156" t="s">
-        <v>302</v>
+        <v>113</v>
       </c>
       <c r="D156" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E156" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F156" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G156" t="s">
         <v>16</v>
@@ -5966,22 +5984,22 @@
     </row>
     <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>1</v>
+        <v>470</v>
       </c>
       <c r="C157" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="D157" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E157" t="s">
-        <v>74</v>
+        <v>367</v>
       </c>
       <c r="F157" t="s">
-        <v>75</v>
+        <v>368</v>
       </c>
       <c r="G157" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="2:16" x14ac:dyDescent="0.25">
@@ -5989,22 +6007,22 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D158" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E158" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F158" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G158" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P158" t="str">
-        <f>"'"&amp;D158&amp;"',"</f>
+        <f>"'"&amp;D159&amp;"',"</f>
         <v>'VIEWMAX ENIGMAX RX 570 4GB',</v>
       </c>
     </row>
@@ -6016,19 +6034,19 @@
         <v>371</v>
       </c>
       <c r="D159" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E159" t="s">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="F159" t="s">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="G159" t="s">
         <v>9</v>
       </c>
       <c r="P159" t="str">
-        <f t="shared" ref="P159:P170" si="3">"'"&amp;D159&amp;"',"</f>
+        <f t="shared" ref="P159:P170" si="3">"'"&amp;D160&amp;"',"</f>
         <v>'VIEWMAX ENIGMAX RX 570 8GB',</v>
       </c>
     </row>
@@ -6037,16 +6055,16 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>117</v>
+        <v>371</v>
       </c>
       <c r="D160" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E160" t="s">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="F160" t="s">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="G160" t="s">
         <v>9</v>
@@ -6061,16 +6079,16 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D161" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E161" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="F161" t="s">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="G161" t="s">
         <v>9</v>
@@ -6085,16 +6103,16 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D162" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E162" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="F162" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="G162" t="s">
         <v>9</v>
@@ -6109,16 +6127,16 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>369</v>
+        <v>117</v>
       </c>
       <c r="D163" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E163" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="F163" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="G163" t="s">
         <v>9</v>
@@ -6136,7 +6154,7 @@
         <v>369</v>
       </c>
       <c r="D164" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E164" t="s">
         <v>84</v>
@@ -6157,16 +6175,16 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="D165" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E165" t="s">
-        <v>255</v>
+        <v>84</v>
       </c>
       <c r="F165" t="s">
-        <v>256</v>
+        <v>85</v>
       </c>
       <c r="G165" t="s">
         <v>9</v>
@@ -6181,16 +6199,16 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D166" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E166" t="s">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="G166" t="s">
         <v>9</v>
@@ -6205,16 +6223,16 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D167" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E167" t="s">
-        <v>384</v>
+        <v>27</v>
       </c>
       <c r="F167" t="s">
-        <v>385</v>
+        <v>28</v>
       </c>
       <c r="G167" t="s">
         <v>9</v>
@@ -6229,19 +6247,19 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D168" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E168" t="s">
-        <v>265</v>
+        <v>384</v>
       </c>
       <c r="F168" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="G168" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P168" t="str">
         <f t="shared" si="3"/>
@@ -6253,19 +6271,19 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D169" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E169" t="s">
-        <v>388</v>
+        <v>265</v>
       </c>
       <c r="F169" t="s">
-        <v>389</v>
+        <v>266</v>
       </c>
       <c r="G169" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P169" t="str">
         <f t="shared" si="3"/>
@@ -6280,13 +6298,13 @@
         <v>125</v>
       </c>
       <c r="D170" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E170" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="F170" t="s">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="G170" t="s">
         <v>9</v>
@@ -6301,16 +6319,16 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D171" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E171" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="G171" t="s">
         <v>9</v>
@@ -6321,19 +6339,19 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D172" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E172" t="s">
-        <v>393</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>394</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.25">
@@ -6341,19 +6359,19 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D173" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E173" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F173" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G173" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174" spans="2:16" x14ac:dyDescent="0.25">
@@ -6361,16 +6379,16 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D174" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E174" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F174" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G174" t="s">
         <v>9</v>
@@ -6381,18 +6399,38 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
+        <v>109</v>
+      </c>
+      <c r="D175" t="s">
+        <v>398</v>
+      </c>
+      <c r="E175" t="s">
+        <v>399</v>
+      </c>
+      <c r="F175" t="s">
+        <v>400</v>
+      </c>
+      <c r="G175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
         <v>401</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D176" t="s">
         <v>402</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E176" t="s">
         <v>94</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F176" t="s">
         <v>95</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G176" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6400,23 +6438,23 @@
       <c r="A178" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B178" t="s">
-        <v>471</v>
-      </c>
-      <c r="C178" t="s">
-        <v>403</v>
-      </c>
-      <c r="D178" t="s">
-        <v>404</v>
-      </c>
-      <c r="E178" t="s">
-        <v>405</v>
-      </c>
-      <c r="F178" t="s">
-        <v>406</v>
-      </c>
-      <c r="G178" t="s">
-        <v>5</v>
+      <c r="B178" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
@@ -6424,19 +6462,19 @@
         <v>471</v>
       </c>
       <c r="C179" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D179" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E179" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F179" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G179" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
@@ -6444,19 +6482,19 @@
         <v>471</v>
       </c>
       <c r="C180" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D180" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E180" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F180" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G180" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
@@ -6464,10 +6502,10 @@
         <v>471</v>
       </c>
       <c r="C181" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D181" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E181" t="s">
         <v>413</v>
@@ -6476,7 +6514,7 @@
         <v>414</v>
       </c>
       <c r="G181" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
@@ -6484,19 +6522,19 @@
         <v>471</v>
       </c>
       <c r="C182" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D182" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E182" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F182" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G182" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
@@ -6504,16 +6542,16 @@
         <v>471</v>
       </c>
       <c r="C183" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D183" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E183" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F183" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G183" t="s">
         <v>5</v>
@@ -6527,13 +6565,13 @@
         <v>420</v>
       </c>
       <c r="D184" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E184" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F184" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G184" t="s">
         <v>5</v>
@@ -6547,7 +6585,7 @@
         <v>420</v>
       </c>
       <c r="D185" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E185" t="s">
         <v>425</v>
@@ -6564,16 +6602,16 @@
         <v>471</v>
       </c>
       <c r="C186" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="D186" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E186" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F186" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G186" t="s">
         <v>5</v>
@@ -6587,7 +6625,7 @@
         <v>403</v>
       </c>
       <c r="D187" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E187" t="s">
         <v>429</v>
@@ -6599,7 +6637,7 @@
         <v>5</v>
       </c>
       <c r="P187" t="str">
-        <f>"'"&amp;D187&amp;"',"</f>
+        <f>"'"&amp;D188&amp;"',"</f>
         <v>'MEMORIA SODIMM T-FORCE VULCAN 8GB 3200MHZ DDR4 | RED',</v>
       </c>
     </row>
@@ -6608,10 +6646,10 @@
         <v>471</v>
       </c>
       <c r="C188" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D188" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E188" t="s">
         <v>429</v>
@@ -6623,7 +6661,7 @@
         <v>5</v>
       </c>
       <c r="P188" t="str">
-        <f>"'"&amp;D188&amp;"',"</f>
+        <f>"'"&amp;D189&amp;"',"</f>
         <v>'MEMORIA DDR4 KINGSTON 8GB 3200MHZ BLACK CL16',</v>
       </c>
     </row>
@@ -6632,10 +6670,10 @@
         <v>471</v>
       </c>
       <c r="C189" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D189" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E189" t="s">
         <v>429</v>
@@ -6644,10 +6682,10 @@
         <v>430</v>
       </c>
       <c r="G189" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P189" t="str">
-        <f t="shared" ref="P189:P198" si="4">"'"&amp;D189&amp;"',"</f>
+        <f t="shared" ref="P189:P198" si="4">"'"&amp;D190&amp;"',"</f>
         <v>'MEMORIA HP V8SERIES 8GB 3200',</v>
       </c>
     </row>
@@ -6656,19 +6694,19 @@
         <v>471</v>
       </c>
       <c r="C190" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D190" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E190" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F190" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G190" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P190" t="str">
         <f t="shared" si="4"/>
@@ -6680,16 +6718,16 @@
         <v>471</v>
       </c>
       <c r="C191" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D191" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E191" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F191" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G191" t="s">
         <v>5</v>
@@ -6704,10 +6742,10 @@
         <v>471</v>
       </c>
       <c r="C192" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D192" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E192" t="s">
         <v>438</v>
@@ -6728,10 +6766,10 @@
         <v>471</v>
       </c>
       <c r="C193" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D193" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E193" t="s">
         <v>438</v>
@@ -6740,7 +6778,7 @@
         <v>439</v>
       </c>
       <c r="G193" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P193" t="str">
         <f t="shared" si="4"/>
@@ -6752,19 +6790,19 @@
         <v>471</v>
       </c>
       <c r="C194" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D194" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E194" t="s">
-        <v>197</v>
+        <v>438</v>
       </c>
       <c r="F194" t="s">
-        <v>198</v>
+        <v>439</v>
       </c>
       <c r="G194" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P194" t="str">
         <f t="shared" si="4"/>
@@ -6776,16 +6814,16 @@
         <v>471</v>
       </c>
       <c r="C195" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D195" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E195" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F195" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G195" t="s">
         <v>5</v>
@@ -6800,16 +6838,16 @@
         <v>471</v>
       </c>
       <c r="C196" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D196" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E196" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="F196" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="G196" t="s">
         <v>5</v>
@@ -6824,10 +6862,10 @@
         <v>471</v>
       </c>
       <c r="C197" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="D197" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E197" t="s">
         <v>119</v>
@@ -6836,7 +6874,7 @@
         <v>120</v>
       </c>
       <c r="G197" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P197" t="str">
         <f t="shared" si="4"/>
@@ -6848,19 +6886,19 @@
         <v>471</v>
       </c>
       <c r="C198" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="D198" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E198" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="F198" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="G198" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P198" t="str">
         <f t="shared" si="4"/>
@@ -6872,10 +6910,10 @@
         <v>471</v>
       </c>
       <c r="C199" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D199" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E199" t="s">
         <v>214</v>
@@ -6895,13 +6933,13 @@
         <v>403</v>
       </c>
       <c r="D200" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E200" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="F200" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="G200" t="s">
         <v>5</v>
@@ -6915,16 +6953,16 @@
         <v>403</v>
       </c>
       <c r="D201" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E201" t="s">
-        <v>451</v>
+        <v>71</v>
       </c>
       <c r="F201" t="s">
-        <v>452</v>
+        <v>72</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="2:16" x14ac:dyDescent="0.25">
@@ -6935,7 +6973,7 @@
         <v>403</v>
       </c>
       <c r="D202" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E202" t="s">
         <v>451</v>
@@ -6944,7 +6982,7 @@
         <v>452</v>
       </c>
       <c r="G202" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="203" spans="2:16" x14ac:dyDescent="0.25">
@@ -6955,7 +6993,7 @@
         <v>403</v>
       </c>
       <c r="D203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E203" t="s">
         <v>451</v>
@@ -6975,16 +7013,16 @@
         <v>403</v>
       </c>
       <c r="D204" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E204" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F204" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G204" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="2:16" x14ac:dyDescent="0.25">
@@ -6995,16 +7033,16 @@
         <v>403</v>
       </c>
       <c r="D205" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E205" t="s">
-        <v>136</v>
+        <v>456</v>
       </c>
       <c r="F205" t="s">
-        <v>137</v>
+        <v>457</v>
       </c>
       <c r="G205" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="206" spans="2:16" x14ac:dyDescent="0.25">
@@ -7012,16 +7050,16 @@
         <v>471</v>
       </c>
       <c r="C206" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D206" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E206" t="s">
-        <v>460</v>
+        <v>136</v>
       </c>
       <c r="F206" t="s">
-        <v>461</v>
+        <v>137</v>
       </c>
       <c r="G206" t="s">
         <v>5</v>
@@ -7032,16 +7070,16 @@
         <v>471</v>
       </c>
       <c r="C207" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D207" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E207" t="s">
-        <v>235</v>
+        <v>460</v>
       </c>
       <c r="F207" t="s">
-        <v>236</v>
+        <v>461</v>
       </c>
       <c r="G207" t="s">
         <v>5</v>
@@ -7052,16 +7090,16 @@
         <v>471</v>
       </c>
       <c r="C208" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D208" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E208" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="F208" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="G208" t="s">
         <v>5</v>
@@ -7072,18 +7110,38 @@
         <v>471</v>
       </c>
       <c r="C209" t="s">
+        <v>407</v>
+      </c>
+      <c r="D209" t="s">
+        <v>463</v>
+      </c>
+      <c r="E209" t="s">
+        <v>71</v>
+      </c>
+      <c r="F209" t="s">
+        <v>72</v>
+      </c>
+      <c r="G209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>471</v>
+      </c>
+      <c r="C210" t="s">
         <v>403</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D210" t="s">
         <v>464</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E210" t="s">
         <v>18</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F210" t="s">
         <v>19</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G210" t="s">
         <v>5</v>
       </c>
     </row>
